--- a/xlsx/美国海岸警卫队_intext.xlsx
+++ b/xlsx/美国海岸警卫队_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="635">
   <si>
     <t>美国海岸警卫队</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国海岸警卫队</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国海岸警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E5%B7%A1%E9%98%B2%E9%9A%8A</t>
   </si>
   <si>
-    <t>海岸巡防隊</t>
+    <t>海岸巡防队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Department_of_Homeland_Security</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E8%97%8D</t>
   </si>
   <si>
-    <t>海軍藍</t>
+    <t>海军蓝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semper_Paratus_(march)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seminole_Wars</t>
@@ -83,43 +83,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Sea_Dragon</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直昇機</t>
+    <t>直昇机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/HH-60_Jayhawk</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>運輸機</t>
+    <t>运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gulfstream_G550</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國軍隊</t>
+    <t>美国军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A9</t>
@@ -257,25 +257,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E6%B5%B7</t>
   </si>
   <si>
-    <t>領海</t>
+    <t>领海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%B4%E5%9F%9F</t>
   </si>
   <si>
-    <t>國際水域</t>
+    <t>国际水域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>國土安全部</t>
+    <t>国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國財政部長</t>
+    <t>美国财政部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%B4%A2%E5%8F%8A%E6%8B%AF%E6%95%91</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -449,13 +449,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -503,9 +500,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国国会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -527,15 +521,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>美国总统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -557,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -599,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -617,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -773,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -791,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -857,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -899,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1001,15 +992,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1163,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
+    <t>美利坚合众国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E9%95%BF</t>
@@ -1223,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議</t>
+    <t>美国参谋长联席会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E5%86%9B%E4%BA%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%BE%B7%E5%8D%8E%E7%89%B9%EF%BC%8D%E5%B0%BC%E7%A7%91%E5%B0%94%E6%96%AF%E5%9B%BD%E9%98%B2%E9%83%A8%E9%87%8D%E6%9E%84%E6%B3%95%E6%A1%88</t>
@@ -1271,15 +1259,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
   </si>
   <si>
@@ -1289,15 +1274,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国土安全部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E5%8F%82%E8%B0%8B%E9%95%BF</t>
   </si>
   <si>
@@ -1325,9 +1307,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%B0%91%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
   </si>
   <si>
-    <t>美国国民警卫队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%86%9B%E5%9B%BD%E6%B0%91%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
   </si>
   <si>
@@ -1367,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國太平洋司令部</t>
+    <t>美国太平洋司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E6%96%B9%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -1403,13 +1382,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美国法典</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
@@ -1427,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1451,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Recruit_Training</t>
@@ -1601,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -1685,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6%E5%AE%89%E5%85%A8%E5%B1%80%E9%82%8A%E9%98%B2%E8%BB%8D%E6%B5%B7%E5%B7%A1%E9%9A%8A</t>
   </si>
   <si>
-    <t>俄羅斯聯邦安全局邊防軍海巡隊</t>
+    <t>俄罗斯联邦安全局边防军海巡队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ukrainian_Sea_Guard</t>
@@ -1715,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1727,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B5%B7%E5%B2%B8%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>印度海岸警衛隊</t>
+    <t>印度海岸警卫队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pakistan_Coast_Guard</t>
@@ -1757,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B5%B7%E8%AD%A6</t>
   </si>
   <si>
-    <t>中國海警</t>
+    <t>中国海警</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%AD%A6%E7%B8%BD%E5%8D%80</t>
   </si>
   <si>
-    <t>水警總區</t>
+    <t>水警总区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E6%B5%B7%E5%B2%B8%E5%B7%A1%E9%98%B2%E7%BD%B2</t>
@@ -1775,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%B8%8A%E4%BF%9D%E5%AE%89%E5%BB%B3</t>
   </si>
   <si>
-    <t>海上保安廳</t>
+    <t>海上保安厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E6%B5%B7%E6%B4%8B%E8%AD%A6%E5%AF%9F%E5%BB%B3</t>
   </si>
   <si>
-    <t>大韓民國海洋警察廳</t>
+    <t>大韩民国海洋警察厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%B5%B7%E6%B4%8B%E8%AD%A6%E5%AF%9F%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -1793,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%B5%B7%E5%B7%A1%E7%BD%B2</t>
   </si>
   <si>
-    <t>菲律賓海巡署</t>
+    <t>菲律宾海巡署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Malaysian_Maritime_Enforcement_Agency</t>
@@ -1907,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1925,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4460,7 +4436,7 @@
         <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G75" t="n">
         <v>11</v>
@@ -4486,10 +4462,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4515,10 +4491,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4544,10 +4520,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4573,10 +4549,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4602,10 +4578,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4631,10 +4607,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4660,10 +4636,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4689,10 +4665,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4718,10 +4694,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4747,10 +4723,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4776,10 +4752,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4805,10 +4781,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4834,10 +4810,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4863,10 +4839,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4892,10 +4868,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4921,10 +4897,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4950,10 +4926,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4979,10 +4955,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5008,10 +4984,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5037,10 +5013,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5066,10 +5042,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5095,10 +5071,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5124,10 +5100,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5153,10 +5129,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5182,10 +5158,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -5211,10 +5187,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5240,10 +5216,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5269,10 +5245,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5298,10 +5274,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5327,10 +5303,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5356,10 +5332,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5501,10 +5477,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5530,10 +5506,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5559,10 +5535,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5588,10 +5564,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5617,10 +5593,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5646,10 +5622,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5675,10 +5651,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5704,10 +5680,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5733,10 +5709,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5762,10 +5738,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5791,10 +5767,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5820,10 +5796,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5849,10 +5825,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5878,10 +5854,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5907,10 +5883,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5936,10 +5912,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5965,10 +5941,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5994,10 +5970,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6023,10 +5999,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6052,10 +6028,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6081,10 +6057,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6110,10 +6086,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6139,10 +6115,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6168,10 +6144,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6197,10 +6173,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6226,10 +6202,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6255,10 +6231,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6284,10 +6260,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6313,10 +6289,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6342,10 +6318,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6371,10 +6347,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6400,10 +6376,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6429,10 +6405,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6458,10 +6434,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6487,10 +6463,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6516,10 +6492,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6545,10 +6521,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6574,10 +6550,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6603,10 +6579,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6632,10 +6608,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6661,10 +6637,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6690,10 +6666,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6719,10 +6695,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6748,10 +6724,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6777,10 +6753,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6806,10 +6782,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6835,10 +6811,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6864,10 +6840,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6893,10 +6869,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6922,10 +6898,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6951,10 +6927,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6980,10 +6956,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7009,10 +6985,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7038,10 +7014,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7067,10 +7043,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7096,10 +7072,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7125,10 +7101,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -7154,10 +7130,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7183,10 +7159,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7212,10 +7188,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7241,10 +7217,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7270,10 +7246,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7299,10 +7275,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7328,10 +7304,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7357,10 +7333,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7386,10 +7362,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7415,10 +7391,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7444,10 +7420,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7473,10 +7449,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7502,10 +7478,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7531,10 +7507,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7560,10 +7536,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7589,10 +7565,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7618,10 +7594,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7647,10 +7623,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7676,10 +7652,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7705,10 +7681,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7734,10 +7710,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7763,10 +7739,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7792,10 +7768,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7821,10 +7797,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7850,10 +7826,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7879,10 +7855,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7908,10 +7884,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7937,10 +7913,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7966,10 +7942,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7995,10 +7971,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8024,10 +8000,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8053,10 +8029,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8082,10 +8058,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8111,10 +8087,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8140,10 +8116,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8169,10 +8145,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8198,10 +8174,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8230,7 +8206,7 @@
         <v>143</v>
       </c>
       <c r="F205" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8256,10 +8232,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8285,10 +8261,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F207" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8314,10 +8290,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8343,10 +8319,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8372,10 +8348,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8401,10 +8377,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8430,10 +8406,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8459,10 +8435,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8488,10 +8464,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8517,10 +8493,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8546,10 +8522,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8575,10 +8551,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8604,10 +8580,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8633,10 +8609,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="G219" t="n">
         <v>5</v>
@@ -8662,10 +8638,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F220" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G220" t="n">
         <v>8</v>
@@ -8691,10 +8667,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8749,10 +8725,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8778,10 +8754,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8807,10 +8783,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8836,10 +8812,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>6</v>
@@ -8865,10 +8841,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8894,10 +8870,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8923,10 +8899,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>205</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8952,10 +8928,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>45</v>
@@ -8981,10 +8957,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G231" t="n">
         <v>30</v>
@@ -9010,10 +8986,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9039,10 +9015,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9068,10 +9044,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9097,10 +9073,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9126,10 +9102,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9155,10 +9131,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9184,10 +9160,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9213,10 +9189,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9242,10 +9218,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9271,10 +9247,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9300,10 +9276,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>98</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9329,10 +9305,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9358,10 +9334,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9387,10 +9363,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>20</v>
@@ -9416,10 +9392,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9445,10 +9421,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9474,10 +9450,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9503,10 +9479,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9532,10 +9508,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9561,10 +9537,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9590,10 +9566,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9619,10 +9595,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9648,10 +9624,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9677,10 +9653,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9706,10 +9682,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G256" t="n">
         <v>126</v>
@@ -9735,10 +9711,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9764,10 +9740,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9793,10 +9769,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G259" t="n">
         <v>18</v>
@@ -9822,10 +9798,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9851,10 +9827,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9880,10 +9856,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9909,10 +9885,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9938,10 +9914,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9967,10 +9943,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9996,10 +9972,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10025,10 +10001,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10054,10 +10030,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10083,10 +10059,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10112,10 +10088,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10141,10 +10117,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10170,10 +10146,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10199,10 +10175,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10228,10 +10204,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10257,10 +10233,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10286,10 +10262,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10315,10 +10291,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10344,10 +10320,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10373,10 +10349,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10402,10 +10378,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10431,10 +10407,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10460,10 +10436,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10489,10 +10465,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10518,10 +10494,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10547,10 +10523,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10576,10 +10552,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10605,10 +10581,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10634,10 +10610,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10663,10 +10639,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10692,10 +10668,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10721,10 +10697,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10750,10 +10726,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10779,10 +10755,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10808,10 +10784,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10837,10 +10813,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10866,10 +10842,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10895,10 +10871,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10924,10 +10900,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10953,10 +10929,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10982,10 +10958,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11011,10 +10987,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11040,10 +11016,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11069,10 +11045,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11098,10 +11074,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11127,10 +11103,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11156,10 +11132,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11185,10 +11161,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11214,10 +11190,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11243,10 +11219,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11272,10 +11248,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11301,10 +11277,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11330,10 +11306,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11359,10 +11335,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11388,10 +11364,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11417,10 +11393,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11446,10 +11422,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11475,10 +11451,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11504,10 +11480,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11533,10 +11509,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11562,10 +11538,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11591,10 +11567,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11620,10 +11596,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11649,10 +11625,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11678,10 +11654,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11707,10 +11683,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11736,10 +11712,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -11765,10 +11741,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11794,10 +11770,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11823,10 +11799,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11852,10 +11828,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11881,10 +11857,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11910,10 +11886,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
